--- a/Addl/BatteryBudgeting.xlsx
+++ b/Addl/BatteryBudgeting.xlsx
@@ -76,8 +76,8 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -154,18 +154,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
